--- a/output/과제수행계획서_박정민_v2.0_0322.xlsx
+++ b/output/과제수행계획서_박정민_v2.0_0322.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="328">
   <si>
     <t>과제수행계획서</t>
   </si>
@@ -380,9 +380,6 @@
   </si>
   <si>
     <t>172.16.153.129</t>
-  </si>
-  <si>
-    <t>Wiselog 데이터 확인용</t>
   </si>
   <si>
     <t>제공 서비스 목록</t>
@@ -4871,25 +4868,25 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="184" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" ht="24.0" customHeight="1"/>
     <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="185" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="186" t="s">
+      <c r="C3" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="187" t="s">
+      <c r="D3" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="186" t="s">
+      <c r="E3" s="187" t="s">
         <v>294</v>
-      </c>
-      <c r="E3" s="187" t="s">
-        <v>295</v>
       </c>
       <c r="F3" s="188" t="s">
         <v>4</v>
@@ -4897,125 +4894,125 @@
     </row>
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="189" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="190"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1">
+      <c r="A5" s="191" t="s">
         <v>296</v>
       </c>
-      <c r="F4" s="190"/>
-    </row>
-    <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="191" t="s">
+      <c r="B5" s="192" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="192" t="s">
+      <c r="D5" s="192" t="s">
         <v>298</v>
       </c>
-      <c r="D5" s="192" t="s">
+      <c r="F5" s="139"/>
+    </row>
+    <row r="6" ht="62.25" customHeight="1">
+      <c r="A6" s="193" t="s">
         <v>299</v>
       </c>
-      <c r="F5" s="139"/>
-    </row>
-    <row r="6" ht="62.25" customHeight="1">
-      <c r="A6" s="193" t="s">
+      <c r="B6" s="194" t="s">
         <v>300</v>
-      </c>
-      <c r="B6" s="194" t="s">
-        <v>301</v>
       </c>
       <c r="D6" s="192"/>
       <c r="F6" s="139"/>
     </row>
     <row r="7" ht="70.5" customHeight="1">
       <c r="A7" s="193" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B7" s="194" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D7" s="192"/>
       <c r="F7" s="139"/>
     </row>
     <row r="8" ht="116.25" customHeight="1">
       <c r="A8" s="193" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="194" t="s">
         <v>304</v>
       </c>
-      <c r="B8" s="194" t="s">
+      <c r="D8" s="195" t="s">
         <v>305</v>
       </c>
-      <c r="D8" s="195" t="s">
+      <c r="F8" s="139"/>
+    </row>
+    <row r="9" ht="91.5" customHeight="1">
+      <c r="A9" s="193" t="s">
         <v>306</v>
       </c>
-      <c r="F8" s="139"/>
-    </row>
-    <row r="9" ht="91.5" customHeight="1">
-      <c r="A9" s="193" t="s">
+      <c r="B9" s="194" t="s">
         <v>307</v>
       </c>
-      <c r="B9" s="194" t="s">
+      <c r="D9" s="195" t="s">
         <v>308</v>
       </c>
-      <c r="D9" s="195" t="s">
+      <c r="F9" s="139"/>
+    </row>
+    <row r="10" ht="144.0" customHeight="1">
+      <c r="A10" s="193" t="s">
         <v>309</v>
       </c>
-      <c r="F9" s="139"/>
-    </row>
-    <row r="10" ht="144.0" customHeight="1">
-      <c r="A10" s="193" t="s">
+      <c r="B10" s="196" t="s">
         <v>310</v>
       </c>
-      <c r="B10" s="196" t="s">
+      <c r="D10" s="197" t="s">
         <v>311</v>
       </c>
-      <c r="D10" s="197" t="s">
+      <c r="F10" s="139"/>
+    </row>
+    <row r="11" ht="102.0" customHeight="1">
+      <c r="A11" s="193" t="s">
         <v>312</v>
       </c>
-      <c r="F10" s="139"/>
-    </row>
-    <row r="11" ht="102.0" customHeight="1">
-      <c r="A11" s="193" t="s">
+      <c r="B11" s="198" t="s">
         <v>313</v>
-      </c>
-      <c r="B11" s="198" t="s">
-        <v>314</v>
       </c>
       <c r="D11" s="199"/>
       <c r="F11" s="139"/>
     </row>
     <row r="12" ht="63.75" customHeight="1">
       <c r="A12" s="193" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" s="200" t="s">
         <v>315</v>
       </c>
-      <c r="B12" s="200" t="s">
+      <c r="D12" s="201" t="s">
         <v>316</v>
       </c>
-      <c r="D12" s="201" t="s">
+      <c r="F12" s="139"/>
+    </row>
+    <row r="13" ht="34.5" customHeight="1">
+      <c r="A13" s="193" t="s">
         <v>317</v>
       </c>
-      <c r="F12" s="139"/>
-    </row>
-    <row r="13" ht="34.5" customHeight="1">
-      <c r="A13" s="193" t="s">
+      <c r="B13" s="198" t="s">
         <v>318</v>
       </c>
-      <c r="B13" s="198" t="s">
+      <c r="D13" s="201" t="s">
         <v>319</v>
       </c>
-      <c r="D13" s="201" t="s">
+      <c r="F13" s="139"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="193" t="s">
         <v>320</v>
       </c>
-      <c r="F13" s="139"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="193" t="s">
+      <c r="B14" s="200" t="s">
         <v>321</v>
-      </c>
-      <c r="B14" s="200" t="s">
-        <v>322</v>
       </c>
       <c r="D14" s="202"/>
       <c r="F14" s="139"/>
     </row>
     <row r="15">
       <c r="A15" s="193" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B15" s="199"/>
       <c r="D15" s="199"/>
@@ -5023,7 +5020,7 @@
     </row>
     <row r="16">
       <c r="A16" s="193" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B16" s="199"/>
       <c r="D16" s="199"/>
@@ -5031,20 +5028,20 @@
     </row>
     <row r="17" ht="118.5" customHeight="1">
       <c r="A17" s="193" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B17" s="198" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D17" s="199"/>
       <c r="F17" s="139"/>
     </row>
     <row r="18">
       <c r="A18" s="203" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B18" s="204" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C18" s="205"/>
       <c r="D18" s="206"/>
@@ -35698,9 +35695,7 @@
       <c r="E3" s="92">
         <v>3306.0</v>
       </c>
-      <c r="F3" s="94" t="s">
-        <v>118</v>
-      </c>
+      <c r="F3" s="94"/>
     </row>
     <row r="4">
       <c r="A4" s="95"/>
@@ -35741,18 +35736,18 @@
   <sheetData>
     <row r="1" ht="36.75" customHeight="1">
       <c r="A1" s="97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="87" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="87" t="s">
+      <c r="B2" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="C2" s="87" t="s">
         <v>121</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3">
@@ -35760,10 +35755,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4">
@@ -35776,10 +35771,10 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
@@ -35789,21 +35784,21 @@
     </row>
     <row r="8">
       <c r="A8" s="99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="101" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="101" t="s">
+      <c r="C9" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="D9" s="101" t="s">
         <v>129</v>
-      </c>
-      <c r="D9" s="101" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -35811,13 +35806,13 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="103" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
@@ -35825,32 +35820,32 @@
         <v>2.0</v>
       </c>
       <c r="B11" s="103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="103" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="99" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="99" t="s">
+    <row r="15">
+      <c r="A15" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="101" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="101" t="s">
+      <c r="D15" s="101" t="s">
         <v>135</v>
-      </c>
-      <c r="D15" s="101" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16">
@@ -35858,13 +35853,13 @@
         <v>1.0</v>
       </c>
       <c r="B16" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
@@ -35872,13 +35867,13 @@
         <v>1.0</v>
       </c>
       <c r="B17" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D17" s="103" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18">
@@ -35886,13 +35881,13 @@
         <v>2.0</v>
       </c>
       <c r="B18" s="103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="103" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19">
@@ -35900,32 +35895,32 @@
         <v>2.0</v>
       </c>
       <c r="B19" s="103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="103" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="99" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="101" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" s="101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23">
@@ -35933,13 +35928,13 @@
         <v>1.0</v>
       </c>
       <c r="B23" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" s="103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24">
@@ -35947,13 +35942,13 @@
         <v>1.0</v>
       </c>
       <c r="B24" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25">
@@ -35961,13 +35956,13 @@
         <v>1.0</v>
       </c>
       <c r="B25" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" s="103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26">
@@ -35975,13 +35970,13 @@
         <v>2.0</v>
       </c>
       <c r="B26" s="103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D26" s="103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27">
@@ -35989,13 +35984,13 @@
         <v>2.0</v>
       </c>
       <c r="B27" s="103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27" s="103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -36037,22 +36032,22 @@
     <row r="2" ht="16.5" customHeight="1"/>
     <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="C3" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="D3" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="E3" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="F3" s="53" t="s">
         <v>157</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>158</v>
       </c>
       <c r="G3" s="53" t="s">
         <v>1</v>
@@ -36094,13 +36089,13 @@
       </c>
       <c r="C7" s="114"/>
       <c r="D7" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="116" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="F7" s="117" t="s">
         <v>160</v>
-      </c>
-      <c r="F7" s="117" t="s">
-        <v>161</v>
       </c>
       <c r="G7" s="118"/>
     </row>
@@ -36111,13 +36106,13 @@
       </c>
       <c r="C8" s="120"/>
       <c r="D8" s="121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="122" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G8" s="124"/>
     </row>
@@ -36125,16 +36120,16 @@
       <c r="A9" s="113"/>
       <c r="B9" s="119"/>
       <c r="C9" s="120" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="E9" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="F9" s="123" t="s">
         <v>166</v>
-      </c>
-      <c r="F9" s="123" t="s">
-        <v>167</v>
       </c>
       <c r="G9" s="124"/>
     </row>
@@ -36142,33 +36137,33 @@
       <c r="A10" s="113"/>
       <c r="B10" s="119"/>
       <c r="C10" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="121" t="s">
-        <v>169</v>
-      </c>
       <c r="E10" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F10" s="123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G10" s="124"/>
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="113"/>
       <c r="B11" s="119" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="120"/>
       <c r="D11" s="121" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" s="124"/>
     </row>
@@ -36176,16 +36171,16 @@
       <c r="A12" s="113"/>
       <c r="B12" s="119"/>
       <c r="C12" s="120" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="D12" s="121" t="s">
+      <c r="E12" s="122" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="122" t="s">
+      <c r="F12" s="125" t="s">
         <v>176</v>
-      </c>
-      <c r="F12" s="125" t="s">
-        <v>177</v>
       </c>
       <c r="G12" s="124"/>
     </row>
@@ -36193,33 +36188,33 @@
       <c r="A13" s="113"/>
       <c r="B13" s="119"/>
       <c r="C13" s="120" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="121" t="s">
-        <v>179</v>
-      </c>
       <c r="E13" s="122" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F13" s="125" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G13" s="124"/>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="113"/>
       <c r="B14" s="119" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="120"/>
       <c r="D14" s="121" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="122" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="122" t="s">
+      <c r="F14" s="125" t="s">
         <v>183</v>
-      </c>
-      <c r="F14" s="125" t="s">
-        <v>184</v>
       </c>
       <c r="G14" s="124"/>
     </row>
@@ -36227,14 +36222,14 @@
       <c r="A15" s="113"/>
       <c r="B15" s="119"/>
       <c r="C15" s="120" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="121" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E15" s="122"/>
       <c r="F15" s="125" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G15" s="124"/>
     </row>
@@ -36242,16 +36237,16 @@
       <c r="A16" s="113"/>
       <c r="B16" s="119"/>
       <c r="C16" s="120" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16" s="121" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E16" s="122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" s="125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G16" s="124"/>
     </row>
@@ -36259,33 +36254,33 @@
       <c r="A17" s="113"/>
       <c r="B17" s="119"/>
       <c r="C17" s="120" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="121" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="122" t="s">
-        <v>191</v>
-      </c>
       <c r="F17" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G17" s="124"/>
     </row>
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="113"/>
       <c r="B18" s="119" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="120"/>
       <c r="D18" s="121" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="E18" s="122" t="s">
+      <c r="F18" s="126" t="s">
         <v>194</v>
-      </c>
-      <c r="F18" s="126" t="s">
-        <v>195</v>
       </c>
       <c r="G18" s="124"/>
     </row>
@@ -36293,16 +36288,16 @@
       <c r="A19" s="113"/>
       <c r="B19" s="119"/>
       <c r="C19" s="120" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="D19" s="121" t="s">
-        <v>197</v>
-      </c>
       <c r="E19" s="122" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F19" s="125" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G19" s="124"/>
     </row>
@@ -36310,16 +36305,16 @@
       <c r="A20" s="113"/>
       <c r="B20" s="119"/>
       <c r="C20" s="120" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="121" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="121" t="s">
-        <v>199</v>
-      </c>
       <c r="E20" s="122" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F20" s="125" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="124"/>
     </row>
@@ -36327,22 +36322,22 @@
       <c r="A21" s="113"/>
       <c r="B21" s="119"/>
       <c r="C21" s="120" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="121" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="121" t="s">
-        <v>201</v>
-      </c>
       <c r="E21" s="122" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F21" s="125" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G21" s="124"/>
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="113" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" s="119"/>
       <c r="C22" s="120"/>
@@ -36354,17 +36349,17 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="113"/>
       <c r="B23" s="119" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C23" s="120"/>
       <c r="D23" s="121" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="122" t="s">
         <v>204</v>
       </c>
-      <c r="E23" s="122" t="s">
+      <c r="F23" s="125" t="s">
         <v>205</v>
-      </c>
-      <c r="F23" s="125" t="s">
-        <v>206</v>
       </c>
       <c r="G23" s="124"/>
     </row>
@@ -36382,57 +36377,57 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="127"/>
       <c r="B25" s="128" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C25" s="129"/>
       <c r="D25" s="130" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="122" t="s">
         <v>208</v>
       </c>
-      <c r="E25" s="122" t="s">
-        <v>209</v>
-      </c>
       <c r="F25" s="131" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G25" s="132"/>
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="133"/>
       <c r="B26" s="134" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C26" s="135"/>
       <c r="D26" s="136" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="137" t="s">
+      <c r="F26" s="138" t="s">
         <v>212</v>
-      </c>
-      <c r="F26" s="138" t="s">
-        <v>213</v>
       </c>
       <c r="G26" s="139"/>
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="133"/>
       <c r="B27" s="134" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" s="140"/>
       <c r="D27" s="141" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E27" s="142" t="s">
+        <v>214</v>
+      </c>
+      <c r="F27" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="F27" s="143" t="s">
-        <v>216</v>
-      </c>
       <c r="G27" s="144"/>
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="133" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="134"/>
       <c r="C28" s="140"/>
@@ -36448,13 +36443,13 @@
       </c>
       <c r="C29" s="140"/>
       <c r="D29" s="141" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="142" t="s">
         <v>218</v>
       </c>
-      <c r="E29" s="142" t="s">
+      <c r="F29" s="143" t="s">
         <v>219</v>
-      </c>
-      <c r="F29" s="143" t="s">
-        <v>220</v>
       </c>
       <c r="G29" s="144"/>
     </row>
@@ -37478,7 +37473,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="145" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="146"/>
       <c r="C1" s="146"/>
@@ -37495,12 +37490,12 @@
       <c r="N1" s="146"/>
       <c r="O1" s="147"/>
       <c r="P1" s="148" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q1" s="149"/>
       <c r="R1" s="47"/>
       <c r="S1" s="150" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T1" s="149"/>
       <c r="U1" s="149"/>
@@ -37542,7 +37537,7 @@
       <c r="Q2" s="14"/>
       <c r="R2" s="12"/>
       <c r="S2" s="156" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
@@ -37564,12 +37559,12 @@
     </row>
     <row r="3" ht="15.0" customHeight="1">
       <c r="A3" s="157" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="12"/>
       <c r="D3" s="158" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -37583,12 +37578,12 @@
       <c r="N3" s="14"/>
       <c r="O3" s="12"/>
       <c r="P3" s="155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="12"/>
       <c r="S3" s="156" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
@@ -37597,7 +37592,7 @@
       <c r="X3" s="14"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="155" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AA3" s="14"/>
       <c r="AB3" s="12"/>
@@ -37608,12 +37603,12 @@
     </row>
     <row r="4">
       <c r="A4" s="159" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="160"/>
       <c r="C4" s="161"/>
       <c r="D4" s="162" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" s="160"/>
       <c r="F4" s="160"/>
@@ -37680,17 +37675,17 @@
     </row>
     <row r="6">
       <c r="A6" s="166" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="155" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="167"/>
       <c r="G6" s="155" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -37698,19 +37693,19 @@
       <c r="K6" s="14"/>
       <c r="L6" s="167"/>
       <c r="M6" s="155" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="167"/>
       <c r="Q6" s="168" t="s">
+        <v>235</v>
+      </c>
+      <c r="R6" s="168" t="s">
         <v>236</v>
       </c>
-      <c r="R6" s="168" t="s">
+      <c r="S6" s="155" t="s">
         <v>237</v>
-      </c>
-      <c r="S6" s="155" t="s">
-        <v>238</v>
       </c>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
@@ -37733,14 +37728,14 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="170" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" s="171"/>
       <c r="D7" s="171"/>
       <c r="E7" s="171"/>
       <c r="F7" s="172"/>
       <c r="G7" s="170" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H7" s="171"/>
       <c r="I7" s="171"/>
@@ -37748,13 +37743,13 @@
       <c r="K7" s="171"/>
       <c r="L7" s="172"/>
       <c r="M7" s="170" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N7" s="171"/>
       <c r="O7" s="171"/>
       <c r="P7" s="172"/>
       <c r="Q7" s="173" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R7" s="173"/>
       <c r="S7" s="170"/>
@@ -37777,14 +37772,14 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="170" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C8" s="171"/>
       <c r="D8" s="171"/>
       <c r="E8" s="171"/>
       <c r="F8" s="172"/>
       <c r="G8" s="170" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H8" s="171"/>
       <c r="I8" s="171"/>
@@ -37792,16 +37787,16 @@
       <c r="K8" s="171"/>
       <c r="L8" s="172"/>
       <c r="M8" s="170" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N8" s="171"/>
       <c r="O8" s="171"/>
       <c r="P8" s="172"/>
       <c r="Q8" s="173" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R8" s="173" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S8" s="170"/>
       <c r="T8" s="171"/>
@@ -37823,14 +37818,14 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="170" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="171"/>
       <c r="D9" s="171"/>
       <c r="E9" s="171"/>
       <c r="F9" s="172"/>
       <c r="G9" s="170" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H9" s="171"/>
       <c r="I9" s="171"/>
@@ -37838,13 +37833,13 @@
       <c r="K9" s="171"/>
       <c r="L9" s="172"/>
       <c r="M9" s="170" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N9" s="171"/>
       <c r="O9" s="171"/>
       <c r="P9" s="172"/>
       <c r="Q9" s="173" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R9" s="173"/>
       <c r="S9" s="170"/>
@@ -37867,14 +37862,14 @@
         <v>4.0</v>
       </c>
       <c r="B10" s="170" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10" s="171"/>
       <c r="D10" s="171"/>
       <c r="E10" s="171"/>
       <c r="F10" s="172"/>
       <c r="G10" s="170" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H10" s="171"/>
       <c r="I10" s="171"/>
@@ -37882,7 +37877,7 @@
       <c r="K10" s="171"/>
       <c r="L10" s="172"/>
       <c r="M10" s="170" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N10" s="171"/>
       <c r="O10" s="171"/>
@@ -37909,14 +37904,14 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="170" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C11" s="171"/>
       <c r="D11" s="171"/>
       <c r="E11" s="171"/>
       <c r="F11" s="172"/>
       <c r="G11" s="170" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H11" s="171"/>
       <c r="I11" s="171"/>
@@ -37924,7 +37919,7 @@
       <c r="K11" s="171"/>
       <c r="L11" s="172"/>
       <c r="M11" s="170" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N11" s="171"/>
       <c r="O11" s="171"/>
@@ -37951,14 +37946,14 @@
         <v>6.0</v>
       </c>
       <c r="B12" s="170" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="171"/>
       <c r="D12" s="171"/>
       <c r="E12" s="171"/>
       <c r="F12" s="172"/>
       <c r="G12" s="170" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H12" s="171"/>
       <c r="I12" s="171"/>
@@ -37966,7 +37961,7 @@
       <c r="K12" s="171"/>
       <c r="L12" s="172"/>
       <c r="M12" s="170" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N12" s="171"/>
       <c r="O12" s="171"/>
@@ -37993,14 +37988,14 @@
         <v>7.0</v>
       </c>
       <c r="B13" s="170" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13" s="171"/>
       <c r="D13" s="171"/>
       <c r="E13" s="171"/>
       <c r="F13" s="172"/>
       <c r="G13" s="170" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H13" s="171"/>
       <c r="I13" s="171"/>
@@ -38008,7 +38003,7 @@
       <c r="K13" s="171"/>
       <c r="L13" s="172"/>
       <c r="M13" s="170" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N13" s="171"/>
       <c r="O13" s="171"/>
@@ -46020,7 +46015,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="145" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="146"/>
       <c r="C1" s="146"/>
@@ -46037,12 +46032,12 @@
       <c r="N1" s="146"/>
       <c r="O1" s="147"/>
       <c r="P1" s="148" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q1" s="149"/>
       <c r="R1" s="47"/>
       <c r="S1" s="150" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T1" s="149"/>
       <c r="U1" s="149"/>
@@ -46084,7 +46079,7 @@
       <c r="Q2" s="14"/>
       <c r="R2" s="12"/>
       <c r="S2" s="156" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
@@ -46106,12 +46101,12 @@
     </row>
     <row r="3" ht="15.0" customHeight="1">
       <c r="A3" s="157" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="12"/>
       <c r="D3" s="158" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -46125,12 +46120,12 @@
       <c r="N3" s="14"/>
       <c r="O3" s="12"/>
       <c r="P3" s="155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="12"/>
       <c r="S3" s="156" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
@@ -46139,7 +46134,7 @@
       <c r="X3" s="14"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="155" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AA3" s="14"/>
       <c r="AB3" s="12"/>
@@ -46150,12 +46145,12 @@
     </row>
     <row r="4">
       <c r="A4" s="159" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="160"/>
       <c r="C4" s="161"/>
       <c r="D4" s="162" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="160"/>
       <c r="F4" s="160"/>
@@ -46222,17 +46217,17 @@
     </row>
     <row r="6">
       <c r="A6" s="166" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="155" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="167"/>
       <c r="G6" s="155" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -46240,19 +46235,19 @@
       <c r="K6" s="14"/>
       <c r="L6" s="167"/>
       <c r="M6" s="155" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="167"/>
       <c r="Q6" s="168" t="s">
+        <v>235</v>
+      </c>
+      <c r="R6" s="168" t="s">
         <v>236</v>
       </c>
-      <c r="R6" s="168" t="s">
+      <c r="S6" s="155" t="s">
         <v>237</v>
-      </c>
-      <c r="S6" s="155" t="s">
-        <v>238</v>
       </c>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
@@ -46275,14 +46270,14 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="170" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" s="171"/>
       <c r="D7" s="171"/>
       <c r="E7" s="171"/>
       <c r="F7" s="172"/>
       <c r="G7" s="170" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H7" s="171"/>
       <c r="I7" s="171"/>
@@ -46290,14 +46285,14 @@
       <c r="K7" s="171"/>
       <c r="L7" s="172"/>
       <c r="M7" s="170" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N7" s="171"/>
       <c r="O7" s="171"/>
       <c r="P7" s="172"/>
       <c r="Q7" s="173"/>
       <c r="R7" s="173" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S7" s="170"/>
       <c r="T7" s="171"/>
@@ -46319,14 +46314,14 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="170" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C8" s="171"/>
       <c r="D8" s="171"/>
       <c r="E8" s="171"/>
       <c r="F8" s="172"/>
       <c r="G8" s="170" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H8" s="171"/>
       <c r="I8" s="171"/>
@@ -46334,7 +46329,7 @@
       <c r="K8" s="171"/>
       <c r="L8" s="172"/>
       <c r="M8" s="170" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N8" s="171"/>
       <c r="O8" s="171"/>
@@ -46361,14 +46356,14 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="170" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="171"/>
       <c r="D9" s="171"/>
       <c r="E9" s="171"/>
       <c r="F9" s="172"/>
       <c r="G9" s="170" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H9" s="171"/>
       <c r="I9" s="171"/>
@@ -46376,7 +46371,7 @@
       <c r="K9" s="171"/>
       <c r="L9" s="172"/>
       <c r="M9" s="170" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N9" s="171"/>
       <c r="O9" s="171"/>
@@ -46403,14 +46398,14 @@
         <v>4.0</v>
       </c>
       <c r="B10" s="170" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="171"/>
       <c r="D10" s="171"/>
       <c r="E10" s="171"/>
       <c r="F10" s="172"/>
       <c r="G10" s="170" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H10" s="171"/>
       <c r="I10" s="171"/>
@@ -46418,7 +46413,7 @@
       <c r="K10" s="171"/>
       <c r="L10" s="172"/>
       <c r="M10" s="170" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N10" s="171"/>
       <c r="O10" s="171"/>
@@ -46445,14 +46440,14 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="170" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11" s="171"/>
       <c r="D11" s="171"/>
       <c r="E11" s="171"/>
       <c r="F11" s="172"/>
       <c r="G11" s="170" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H11" s="171"/>
       <c r="I11" s="171"/>
@@ -46460,14 +46455,14 @@
       <c r="K11" s="171"/>
       <c r="L11" s="172"/>
       <c r="M11" s="170" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N11" s="171"/>
       <c r="O11" s="171"/>
       <c r="P11" s="172"/>
       <c r="Q11" s="173"/>
       <c r="R11" s="173" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S11" s="170"/>
       <c r="T11" s="171"/>
@@ -54519,99 +54514,99 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="181" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="182" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="182" t="s">
+      <c r="B2" s="182" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="182" t="s">
+      <c r="C2" s="182" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="D2" s="182" t="s">
         <v>275</v>
-      </c>
-      <c r="D2" s="182" t="s">
-        <v>276</v>
       </c>
       <c r="E2" s="182" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="182" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="182" t="s">
         <v>277</v>
       </c>
-      <c r="G2" s="182" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="183" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="183" t="s">
+      <c r="B3" s="183" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="183" t="s">
+      <c r="C3" s="183" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="183" t="s">
+      <c r="D3" s="183" t="s">
         <v>281</v>
       </c>
-      <c r="D3" s="183" t="s">
+      <c r="E3" s="183" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="183" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" s="183" t="s">
         <v>282</v>
       </c>
-      <c r="E3" s="183" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="183" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="183" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="183" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="183" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="183" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="183" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="183" t="s">
         <v>282</v>
       </c>
-      <c r="F3" s="183" t="s">
-        <v>282</v>
-      </c>
-      <c r="G3" s="183" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="183" t="s">
-        <v>284</v>
-      </c>
-      <c r="B4" s="183" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="183" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="183" t="s">
         <v>286</v>
       </c>
-      <c r="D4" s="183" t="s">
-        <v>282</v>
-      </c>
-      <c r="E4" s="183" t="s">
-        <v>282</v>
-      </c>
-      <c r="F4" s="183" t="s">
-        <v>282</v>
-      </c>
-      <c r="G4" s="183" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="183" t="s">
+      <c r="B5" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="B5" s="183" t="s">
+      <c r="C5" s="183" t="s">
         <v>288</v>
       </c>
-      <c r="C5" s="183" t="s">
-        <v>289</v>
-      </c>
       <c r="D5" s="183" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E5" s="183" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F5" s="183" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G5" s="183" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6">
